--- a/medicine/Bioéthique/Feminists_for_Life/Feminists_for_Life.xlsx
+++ b/medicine/Bioéthique/Feminists_for_Life/Feminists_for_Life.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Feminists for Life est une association américaine ayant pour but de trouver une compatibilité entre le mouvement pro-vie et le féminisme.        
-L'Association est fondée en 1972 à Arlington en Virginie, par Pat Goltz et Cathy Callaghan[1]. Elle se réclame de l'héritage de la féministe Susan B. Anthony, connue pour son opposition à l'avortement. Elle encourage les pratiques holistiques centrée sur l'identité propre de la femme et de la famille. L'organisme reçoit le soutien de plusieurs membres de l'Église catholique romaine.       
+L'Association est fondée en 1972 à Arlington en Virginie, par Pat Goltz et Cathy Callaghan. Elle se réclame de l'héritage de la féministe Susan B. Anthony, connue pour son opposition à l'avortement. Elle encourage les pratiques holistiques centrée sur l'identité propre de la femme et de la famille. L'organisme reçoit le soutien de plusieurs membres de l'Église catholique romaine.       
 </t>
         </is>
       </c>
